--- a/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="97">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -294,24 +294,6 @@
     <t>9840058745</t>
   </si>
   <si>
-    <t>9840005192</t>
-  </si>
-  <si>
-    <t>9840069593</t>
-  </si>
-  <si>
-    <t>9840013593</t>
-  </si>
-  <si>
-    <t>9840091536</t>
-  </si>
-  <si>
-    <t>9840015825</t>
-  </si>
-  <si>
-    <t>9840054157</t>
-  </si>
-  <si>
     <t>9840069642</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
   </si>
   <si>
     <t>9840092831</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>9840029924</t>
@@ -337,7 +316,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,93 +687,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -804,139 +782,139 @@
       <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>66</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -950,31 +928,31 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>97</v>
+      <c r="F2" t="s">
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -983,43 +961,43 @@
       <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
         <v>50</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s" s="0">
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
         <v>50</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
         <v>50</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
         <v>50</v>
       </c>
       <c r="AB2" s="6" t="s">
@@ -1049,19 +1027,19 @@
       <c r="AJ2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" t="s" s="0">
+      <c r="AL2" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" t="s" s="0">
+      <c r="AM2" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" t="s" s="0">
+      <c r="AN2" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" t="s" s="0">
+      <c r="AO2" t="s">
         <v>60</v>
       </c>
       <c r="AP2" s="6" t="s">
@@ -1123,31 +1101,31 @@
       <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1156,8 +1134,8 @@
       <c r="N3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s" s="0">
-        <v>50</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1170,31 +1148,31 @@
       <c r="C4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>98</v>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1203,7 +1181,7 @@
       <c r="N4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1217,7 +1195,7 @@
       <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1226,19 +1204,19 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1247,8 +1225,8 @@
       <c r="N5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O5" t="s" s="0">
-        <v>50</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1262,7 +1240,7 @@
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1271,19 +1249,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1292,8 +1270,8 @@
       <c r="N6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>50</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1306,14 +1284,14 @@
       <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>99</v>
+      <c r="F7" t="s">
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1321,16 +1299,16 @@
       <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1339,7 +1317,7 @@
       <c r="N7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1353,31 +1331,31 @@
       <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>101</v>
+      <c r="F8" t="s">
+        <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1386,7 +1364,7 @@
       <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s" s="0">
+      <c r="O8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1400,31 +1378,31 @@
       <c r="C9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1433,8 +1411,8 @@
       <c r="N9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>50</v>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
@@ -1447,31 +1425,31 @@
       <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>102</v>
+      <c r="F10" t="s">
+        <v>95</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1480,7 +1458,7 @@
       <c r="N10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="s" s="0">
+      <c r="O10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1494,14 +1472,14 @@
       <c r="C11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>103</v>
+      <c r="F11" t="s">
+        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1509,16 +1487,16 @@
       <c r="H11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1527,7 +1505,7 @@
       <c r="N11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O11" t="s" s="0">
+      <c r="O11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1541,13 +1519,13 @@
       <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1556,16 +1534,16 @@
       <c r="H12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1574,8 +1552,8 @@
       <c r="N12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O12" t="s" s="0">
-        <v>50</v>
+      <c r="O12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
@@ -1588,13 +1566,13 @@
       <c r="C13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1603,16 +1581,16 @@
       <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>62</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1621,8 +1599,8 @@
       <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O13" t="s" s="0">
-        <v>50</v>
+      <c r="O13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
@@ -1635,13 +1613,13 @@
       <c r="C14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1650,16 +1628,16 @@
       <c r="H14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>43</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1668,8 +1646,8 @@
       <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O14" t="s" s="0">
-        <v>50</v>
+      <c r="O14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
@@ -1682,13 +1660,13 @@
       <c r="C15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1697,16 +1675,16 @@
       <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>40</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1715,8 +1693,8 @@
       <c r="N15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O15" t="s" s="0">
-        <v>50</v>
+      <c r="O15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
@@ -1729,13 +1707,13 @@
       <c r="C16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1744,16 +1722,16 @@
       <c r="H16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>62</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>41</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1762,8 +1740,8 @@
       <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O16" t="s" s="0">
-        <v>50</v>
+      <c r="O16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="115">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -310,12 +310,67 @@
   </si>
   <si>
     <t>9840015729</t>
+  </si>
+  <si>
+    <t>9840019949</t>
+  </si>
+  <si>
+    <t>9840077937</t>
+  </si>
+  <si>
+    <t>9840010663</t>
+  </si>
+  <si>
+    <t>9840012870</t>
+  </si>
+  <si>
+    <t>9840007333</t>
+  </si>
+  <si>
+    <t>9840086830</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840078739</t>
+  </si>
+  <si>
+    <t>9840053328</t>
+  </si>
+  <si>
+    <t>9840097817</t>
+  </si>
+  <si>
+    <t>9840093067</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840094989</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9840034779</t>
+  </si>
+  <si>
+    <t>9840082521</t>
+  </si>
+  <si>
+    <t>9840000753</t>
+  </si>
+  <si>
+    <t>9840080022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -693,87 +748,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="42" max="43" customWidth="true" width="15.26953125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="45" max="46" customWidth="true" width="11.453125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="48" max="54" customWidth="true" width="11.453125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -782,139 +837,139 @@
       <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -928,31 +983,31 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>91</v>
+      <c r="F2" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -961,43 +1016,43 @@
       <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="AB2" s="6" t="s">
@@ -1027,19 +1082,19 @@
       <c r="AJ2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AN2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AN2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>60</v>
       </c>
       <c r="AP2" s="6" t="s">
@@ -1101,31 +1156,31 @@
       <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>84</v>
+      <c r="F3" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1134,7 +1189,7 @@
       <c r="N3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1148,31 +1203,31 @@
       <c r="C4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>92</v>
+      <c r="F4" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1181,7 +1236,7 @@
       <c r="N4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1195,28 +1250,31 @@
       <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s" s="0">
+        <v>100</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1225,7 +1283,7 @@
       <c r="N5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1240,28 +1298,31 @@
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>101</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1270,7 +1331,7 @@
       <c r="N6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1284,14 +1345,14 @@
       <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>93</v>
+      <c r="F7" t="s" s="0">
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1299,16 +1360,16 @@
       <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1317,7 +1378,7 @@
       <c r="N7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1331,31 +1392,31 @@
       <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>94</v>
+      <c r="F8" t="s" s="0">
+        <v>104</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1364,7 +1425,7 @@
       <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1378,31 +1439,31 @@
       <c r="C9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>85</v>
+      <c r="F9" t="s" s="0">
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1411,7 +1472,7 @@
       <c r="N9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1425,31 +1486,31 @@
       <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>95</v>
+      <c r="F10" t="s" s="0">
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1458,7 +1519,7 @@
       <c r="N10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1472,14 +1533,14 @@
       <c r="C11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>96</v>
+      <c r="F11" t="s" s="0">
+        <v>107</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1487,16 +1548,16 @@
       <c r="H11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1505,7 +1566,7 @@
       <c r="N11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1519,14 +1580,14 @@
       <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
+      <c r="F12" t="s" s="0">
+        <v>109</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1534,16 +1595,16 @@
       <c r="H12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1552,7 +1613,7 @@
       <c r="N12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1566,14 +1627,14 @@
       <c r="C13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>87</v>
+      <c r="F13" t="s" s="0">
+        <v>111</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1581,16 +1642,16 @@
       <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1599,7 +1660,7 @@
       <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1613,14 +1674,14 @@
       <c r="C14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
-        <v>88</v>
+      <c r="F14" t="s" s="0">
+        <v>112</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1628,16 +1689,16 @@
       <c r="H14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1646,7 +1707,7 @@
       <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1660,14 +1721,14 @@
       <c r="C15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>89</v>
+      <c r="F15" t="s" s="0">
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1675,16 +1736,16 @@
       <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1693,7 +1754,7 @@
       <c r="N15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1707,14 +1768,14 @@
       <c r="C16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
-        <v>90</v>
+      <c r="F16" t="s" s="0">
+        <v>114</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1722,16 +1783,16 @@
       <c r="H16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1740,7 +1801,7 @@
       <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -364,6 +364,51 @@
   </si>
   <si>
     <t>9840080022</t>
+  </si>
+  <si>
+    <t>9840081191</t>
+  </si>
+  <si>
+    <t>9840064182</t>
+  </si>
+  <si>
+    <t>9840059213</t>
+  </si>
+  <si>
+    <t>9840066772</t>
+  </si>
+  <si>
+    <t>9840006924</t>
+  </si>
+  <si>
+    <t>9840067166</t>
+  </si>
+  <si>
+    <t>9840072487</t>
+  </si>
+  <si>
+    <t>9840050320</t>
+  </si>
+  <si>
+    <t>9840045184</t>
+  </si>
+  <si>
+    <t>9840073084</t>
+  </si>
+  <si>
+    <t>9840044009</t>
+  </si>
+  <si>
+    <t>9840075452</t>
+  </si>
+  <si>
+    <t>9840012261</t>
+  </si>
+  <si>
+    <t>9840040566</t>
+  </si>
+  <si>
+    <t>9840007959</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1092,7 +1137,7 @@
         <v>60</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>60</v>
@@ -1163,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1210,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1257,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1305,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1352,7 +1397,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1399,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1446,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1493,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1540,7 +1585,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1587,7 +1632,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1634,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1681,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1728,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1775,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC015_WF_RRN_OneN_TwoY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="100">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -273,117 +273,15 @@
     <t>WF_RRN_OneN_TwoY</t>
   </si>
   <si>
-    <t>9840051383</t>
-  </si>
-  <si>
-    <t>9840089318</t>
-  </si>
-  <si>
-    <t>9840076570</t>
-  </si>
-  <si>
-    <t>9840026271</t>
-  </si>
-  <si>
-    <t>9840068468</t>
-  </si>
-  <si>
-    <t>9840072345</t>
-  </si>
-  <si>
-    <t>9840058745</t>
-  </si>
-  <si>
-    <t>9840069642</t>
-  </si>
-  <si>
-    <t>9840076717</t>
-  </si>
-  <si>
-    <t>9840092831</t>
-  </si>
-  <si>
-    <t>9840029924</t>
-  </si>
-  <si>
-    <t>9840044697</t>
-  </si>
-  <si>
-    <t>9840015729</t>
-  </si>
-  <si>
-    <t>9840019949</t>
-  </si>
-  <si>
-    <t>9840077937</t>
-  </si>
-  <si>
-    <t>9840010663</t>
-  </si>
-  <si>
-    <t>9840012870</t>
-  </si>
-  <si>
-    <t>9840007333</t>
-  </si>
-  <si>
-    <t>9840086830</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840078739</t>
-  </si>
-  <si>
-    <t>9840053328</t>
-  </si>
-  <si>
-    <t>9840097817</t>
-  </si>
-  <si>
-    <t>9840093067</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9840094989</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840034779</t>
-  </si>
-  <si>
-    <t>9840082521</t>
-  </si>
-  <si>
-    <t>9840000753</t>
-  </si>
-  <si>
-    <t>9840080022</t>
-  </si>
-  <si>
-    <t>9840081191</t>
-  </si>
-  <si>
     <t>9840064182</t>
   </si>
   <si>
     <t>9840059213</t>
   </si>
   <si>
-    <t>9840066772</t>
-  </si>
-  <si>
     <t>9840006924</t>
   </si>
   <si>
-    <t>9840067166</t>
-  </si>
-  <si>
     <t>9840072487</t>
   </si>
   <si>
@@ -409,6 +307,18 @@
   </si>
   <si>
     <t>9840007959</t>
+  </si>
+  <si>
+    <t>9840030829</t>
+  </si>
+  <si>
+    <t>9840008419</t>
+  </si>
+  <si>
+    <t>9840016940</t>
+  </si>
+  <si>
+    <t>9840071866</t>
   </si>
 </sst>
 </file>
@@ -787,59 +697,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O16"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1018,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1136,8 +1046,8 @@
       <c r="AM2" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AN2" t="s" s="0">
-        <v>108</v>
+      <c r="AN2" s="0">
+        <v>1</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>60</v>
@@ -1191,7 +1101,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1208,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1235,10 +1145,10 @@
         <v>52</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1282,10 +1192,10 @@
         <v>53</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1333,7 +1243,7 @@
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1377,10 +1287,10 @@
         <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1307,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1427,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1471,10 +1381,10 @@
         <v>47</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1518,10 +1428,10 @@
         <v>53</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1565,10 +1475,10 @@
         <v>54</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1612,10 +1522,10 @@
         <v>47</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1659,10 +1569,10 @@
         <v>47</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1679,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1706,10 +1616,10 @@
         <v>47</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1726,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1753,10 +1663,10 @@
         <v>47</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1683,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1800,10 +1710,10 @@
         <v>47</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1847,7 +1757,7 @@
         <v>47</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
